--- a/Pending Task.xlsx
+++ b/Pending Task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t xml:space="preserve">In SWRS SVN path need to be correct </t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Close</t>
+  </si>
+  <si>
+    <t>I made changes here</t>
   </si>
 </sst>
 </file>
@@ -131,48 +134,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -194,41 +156,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -614,10 +541,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,20 +658,25 @@
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C9">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$F$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Pending Task.xlsx
+++ b/Pending Task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t xml:space="preserve">In SWRS SVN path need to be correct </t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>I made changes here</t>
+  </si>
+  <si>
+    <t>I made changes again to check weather my repository is working fine or not</t>
   </si>
 </sst>
 </file>
@@ -541,10 +544,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,6 +664,11 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
